--- a/medicines_db.xlsx
+++ b/medicines_db.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
